--- a/schnitzcell_fullAnalysis_1color.xlsx
+++ b/schnitzcell_fullAnalysis_1color.xlsx
@@ -273,9 +273,6 @@
     <t>0.94</t>
   </si>
   <si>
-    <t>D:\colonies</t>
-  </si>
-  <si>
     <t>slices</t>
   </si>
   <si>
@@ -312,12 +309,6 @@
     <t>pos2</t>
   </si>
   <si>
-    <t>2009-12-16</t>
-  </si>
-  <si>
-    <t>[150 500]</t>
-  </si>
-  <si>
     <t>[0 500]</t>
   </si>
   <si>
@@ -334,6 +325,15 @@
   </si>
   <si>
     <t>[203 204]</t>
+  </si>
+  <si>
+    <t>[20 222]</t>
+  </si>
+  <si>
+    <t>2011-10-20</t>
+  </si>
+  <si>
+    <t>D:\ExperimentalData</t>
   </si>
 </sst>
 </file>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -761,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -770,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="5"/>
       <c r="E3" s="5"/>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -790,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -827,7 +827,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="5">
         <v>35</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="5">
         <v>20</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="5">
         <v>2</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="5">
         <v>250</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="5">
         <v>5</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5">
         <v>5</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="5">
         <v>4</v>
@@ -901,7 +901,7 @@
         <v>47</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -909,7 +909,7 @@
         <v>49</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -917,7 +917,7 @@
         <v>50</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -925,7 +925,7 @@
         <v>51</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -939,7 +939,7 @@
         <v>53</v>
       </c>
       <c r="B24" s="5">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -976,7 +976,7 @@
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="str">
         <f>CONCATENATE("p = DJK_initschnitz('",B$3,"','",B$2,"','e.coli.AMOLF','rootDir','",B$4,"\', 'cropLeftTop', [1,1], 'cropRightBottom', [1392,1040]);")</f>
-        <v>p = DJK_initschnitz('pos2','2009-12-16','e.coli.AMOLF','rootDir','D:\colonies\', 'cropLeftTop', [1,1], 'cropRightBottom', [1392,1040]);</v>
+        <v>p = DJK_initschnitz('pos2','2011-10-20','e.coli.AMOLF','rootDir','D:\ExperimentalData\', 'cropLeftTop', [1,1], 'cropRightBottom', [1392,1040]);</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -991,7 +991,7 @@
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="str">
         <f>CONCATENATE("p = DJK_initschnitz('",B$3,"crop','",B$2,"','e.coli.AMOLF','rootDir','",B$4,"\', 'cropLeftTop', ", B$7,", 'cropRightBottom', ", B$8,");")</f>
-        <v>p = DJK_initschnitz('pos2crop','2009-12-16','e.coli.AMOLF','rootDir','D:\colonies\', 'cropLeftTop', [1,1], 'cropRightBottom', [1392,1040]);</v>
+        <v>p = DJK_initschnitz('pos2crop','2011-10-20','e.coli.AMOLF','rootDir','D:\ExperimentalData\', 'cropLeftTop', [1,1], 'cropRightBottom', [1392,1040]);</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -1071,7 +1071,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1090,12 +1090,12 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1149,13 +1149,13 @@
     <row r="67" spans="1:2">
       <c r="A67" s="4" t="str">
         <f>CONCATENATE("DJK_addToSchnitzes_mu(p, 'onScreen', 0, 'frameSizes', [", $B$24, "]);")</f>
-        <v>DJK_addToSchnitzes_mu(p, 'onScreen', 0, 'frameSizes', [25]);</v>
+        <v>DJK_addToSchnitzes_mu(p, 'onScreen', 0, 'frameSizes', [15]);</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4" t="str">
         <f>CONCATENATE("DJK_addToSchnitzes_mu(p, 'frameSizes', [", $B$24, "]);")</f>
-        <v>DJK_addToSchnitzes_mu(p, 'frameSizes', [25]);</v>
+        <v>DJK_addToSchnitzes_mu(p, 'frameSizes', [15]);</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1167,7 +1167,7 @@
     <row r="71" spans="1:2">
       <c r="A71" s="3" t="str">
         <f>CONCATENATE("p = DJK_initschnitz('",B$3,"crop','",B$2,"','e.coli.AMOLF','rootDir','",B$4,"\', 'cropLeftTop', ", B$7,", 'cropRightBottom', ", B$8,");")</f>
-        <v>p = DJK_initschnitz('pos2crop','2009-12-16','e.coli.AMOLF','rootDir','D:\colonies\', 'cropLeftTop', [1,1], 'cropRightBottom', [1392,1040]);</v>
+        <v>p = DJK_initschnitz('pos2crop','2011-10-20','e.coli.AMOLF','rootDir','D:\ExperimentalData\', 'cropLeftTop', [1,1], 'cropRightBottom', [1392,1040]);</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1178,7 +1178,7 @@
     <row r="73" spans="1:2">
       <c r="A73" s="3" t="str">
         <f>CONCATENATE("fitTime = ", B$22, ";")</f>
-        <v>fitTime = [150 500];</v>
+        <v>fitTime = [20 222];</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>61</v>
@@ -1305,21 +1305,21 @@
     <row r="94" spans="1:2">
       <c r="A94" s="4" t="str">
         <f>CONCATENATE("schnitzData = DJK_get_schnitzData(p, s_rm_fitTime, 'Y_time', 'dataFields', {'muP", $B$24,"_fitNew', 'Y6_mean'}, 'fitTime', fitTime);")</f>
-        <v>schnitzData = DJK_get_schnitzData(p, s_rm_fitTime, 'Y_time', 'dataFields', {'muP25_fitNew', 'Y6_mean'}, 'fitTime', fitTime);</v>
+        <v>schnitzData = DJK_get_schnitzData(p, s_rm_fitTime, 'Y_time', 'dataFields', {'muP15_fitNew', 'Y6_mean'}, 'fitTime', fitTime);</v>
       </c>
       <c r="B94" s="4"/>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="4" t="str">
         <f>CONCATENATE("DJK_plot_scatterColor(p, schnitzData, 'muP", $B$24,"_fitNew', 'Y6_mean', 'Y_time', 'xlim', [0 40], 'ylim', [0 1.4], 'selectionName', name_rm_fitTime, 'plotRegression', 1, 'onScreen', 0);")</f>
-        <v>DJK_plot_scatterColor(p, schnitzData, 'muP25_fitNew', 'Y6_mean', 'Y_time', 'xlim', [0 40], 'ylim', [0 1.4], 'selectionName', name_rm_fitTime, 'plotRegression', 1, 'onScreen', 0);</v>
+        <v>DJK_plot_scatterColor(p, schnitzData, 'muP15_fitNew', 'Y6_mean', 'Y_time', 'xlim', [0 40], 'ylim', [0 1.4], 'selectionName', name_rm_fitTime, 'plotRegression', 1, 'onScreen', 0);</v>
       </c>
       <c r="B95" s="4"/>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="4" t="str">
         <f>CONCATENATE("DJK_plot_scatterColor(p, schnitzData, 'noise_muP", $B$24,"_fitNew', 'noise_Y6_mean', 'Y_time', 'xlim', [-20 20], 'ylim', [-0.7 0.7], 'selectionName', name_rm_fitTime, 'plotRegression', 1, 'onScreen', 0);")</f>
-        <v>DJK_plot_scatterColor(p, schnitzData, 'noise_muP25_fitNew', 'noise_Y6_mean', 'Y_time', 'xlim', [-20 20], 'ylim', [-0.7 0.7], 'selectionName', name_rm_fitTime, 'plotRegression', 1, 'onScreen', 0);</v>
+        <v>DJK_plot_scatterColor(p, schnitzData, 'noise_muP15_fitNew', 'noise_Y6_mean', 'Y_time', 'xlim', [-20 20], 'ylim', [-0.7 0.7], 'selectionName', name_rm_fitTime, 'plotRegression', 1, 'onScreen', 0);</v>
       </c>
       <c r="B96" s="4"/>
     </row>
@@ -1337,7 +1337,7 @@
     <row r="99" spans="1:2">
       <c r="A99" s="4" t="str">
         <f>CONCATENATE("DJK_plot_time_hist(p, schnitzData, 'muP", $B$24,"_fitNew', 0, 'binCenters', [0:0.05:1.4], 'selectionName', name_rm_fitTime, 'onScreen', 0);")</f>
-        <v>DJK_plot_time_hist(p, schnitzData, 'muP25_fitNew', 0, 'binCenters', [0:0.05:1.4], 'selectionName', name_rm_fitTime, 'onScreen', 0);</v>
+        <v>DJK_plot_time_hist(p, schnitzData, 'muP15_fitNew', 0, 'binCenters', [0:0.05:1.4], 'selectionName', name_rm_fitTime, 'onScreen', 0);</v>
       </c>
       <c r="B99" s="4"/>
     </row>
@@ -1346,14 +1346,14 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B101" s="4"/>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="3" t="str">
         <f>CONCATENATE("fitTime = ", B$20, "; fitTime = fitTime + [2 -2];")</f>
-        <v>fitTime = [150 500]; fitTime = fitTime + [2 -2];</v>
+        <v>fitTime = [20 222]; fitTime = fitTime + [2 -2];</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>80</v>
@@ -1362,62 +1362,61 @@
     <row r="103" spans="1:2">
       <c r="A103" s="4" t="str">
         <f>CONCATENATE("branchData = DJK_getBranches(p,s_rm,'dataFields',{'Y_time','Y6_mean' 'muP", $B$24,"_fitNew'}, 'fitTime', fitTime); name_rm_branch = [name_rm '_' num2str(fitTime(1)) '_' num2str(fitTime(2))];")</f>
-        <v>branchData = DJK_getBranches(p,s_rm,'dataFields',{'Y_time','Y6_mean' 'muP25_fitNew'}, 'fitTime', fitTime); name_rm_branch = [name_rm '_' num2str(fitTime(1)) '_' num2str(fitTime(2))];</v>
+        <v>branchData = DJK_getBranches(p,s_rm,'dataFields',{'Y_time','Y6_mean' 'muP15_fitNew'}, 'fitTime', fitTime); name_rm_branch = [name_rm '_' num2str(fitTime(1)) '_' num2str(fitTime(2))];</v>
       </c>
       <c r="B103" s="4"/>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="str">
         <f>CONCATENATE("branches = DJK_addToBranches_noise(p, branchData,'dataFields',{'Y_time' 'Y6_mean' 'muP", $B$24,"_fitNew'});")</f>
-        <v>branches = DJK_addToBranches_noise(p, branchData,'dataFields',{'Y_time' 'Y6_mean' 'muP25_fitNew'});</v>
-      </c>
-      <c r="B104" s="4"/>
+        <v>branches = DJK_addToBranches_noise(p, branchData,'dataFields',{'Y_time' 'Y6_mean' 'muP15_fitNew'});</v>
+      </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B105" s="4"/>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B106" s="4"/>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="4" t="str">
-        <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error(branch_groups, 'noise_Y6_mean', 'noise_muP", $B$24,"_fitNew');")</f>
-        <v>DJK_plot_crosscorrelation_standard_error(branch_groups, 'noise_Y6_mean', 'noise_muP25_fitNew');</v>
+        <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_Y6_mean', 'noise_muP", $B$24,"_fitNew','selectionName',name_rm_branch);")</f>
+        <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_Y6_mean', 'noise_muP15_fitNew','selectionName',name_rm_branch);</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="4" t="str">
-        <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error(branch_groups, 'noise_Y6_mean',  'noise_Y6_mean');")</f>
-        <v>DJK_plot_crosscorrelation_standard_error(branch_groups, 'noise_Y6_mean',  'noise_Y6_mean');</v>
+        <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_Y6_mean',  'noise_Y6_mean','selectionName',name_rm_branch);")</f>
+        <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_Y6_mean',  'noise_Y6_mean','selectionName',name_rm_branch);</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="4" t="str">
-        <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error(branch_groups,'noise_muP", $B$24,"_fitNew', 'noise_muP", $B$24,"_fitNew');")</f>
-        <v>DJK_plot_crosscorrelation_standard_error(branch_groups,'noise_muP25_fitNew', 'noise_muP25_fitNew');</v>
+        <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups,'noise_muP", $B$24,"_fitNew', 'noise_muP", $B$24,"_fitNew','selectionName',name_rm_branch);")</f>
+        <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups,'noise_muP15_fitNew', 'noise_muP15_fitNew','selectionName',name_rm_branch);</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="3" t="str">
         <f>CONCATENATE("fitTime = ", B$20, "; fitTime = fitTime + [2 -2];")</f>
-        <v>fitTime = [150 500]; fitTime = fitTime + [2 -2];</v>
+        <v>fitTime = [20 222]; fitTime = fitTime + [2 -2];</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="4" t="str">
         <f>CONCATENATE("branchData = DJK_get_branches(p,s_rm,'dataFields',{'Y_time','Y6_mean' 'muP", $B$24,"_fitNew'}, 'fitTime', fitTime); name_rm_branch = [name_rm '_' num2str(fitTime(1)) '_' num2str(fitTime(2))];")</f>
-        <v>branchData = DJK_get_branches(p,s_rm,'dataFields',{'Y_time','Y6_mean' 'muP25_fitNew'}, 'fitTime', fitTime); name_rm_branch = [name_rm '_' num2str(fitTime(1)) '_' num2str(fitTime(2))];</v>
+        <v>branchData = DJK_get_branches(p,s_rm,'dataFields',{'Y_time','Y6_mean' 'muP15_fitNew'}, 'fitTime', fitTime); name_rm_branch = [name_rm '_' num2str(fitTime(1)) '_' num2str(fitTime(2))];</v>
       </c>
     </row>
     <row r="115" spans="1:1">
@@ -1429,13 +1428,13 @@
     <row r="116" spans="1:1">
       <c r="A116" s="4" t="str">
         <f>CONCATENATE("DJK_xcorr_branches(p, branchData, 'noise_muP", $B$24,"_fitNew', 'noise_muP", $B$24,"_fitNew', 'correct', 1, 'xlim',", $B$19, ", 'selectionName', name_rm_branch, 'onScreen', 0);")</f>
-        <v>DJK_xcorr_branches(p, branchData, 'noise_muP25_fitNew', 'noise_muP25_fitNew', 'correct', 1, 'xlim',[0 500], 'selectionName', name_rm_branch, 'onScreen', 0);</v>
+        <v>DJK_xcorr_branches(p, branchData, 'noise_muP15_fitNew', 'noise_muP15_fitNew', 'correct', 1, 'xlim',[0 500], 'selectionName', name_rm_branch, 'onScreen', 0);</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="4" t="str">
         <f>CONCATENATE("DJK_xcorr_branches(p, branchData, 'noise_Y6_mean', 'noise_muP", $B$24,"_fitNew', 'correct', 1, 'xlim', [-450 450], 'selectionName', name_rm_branch, 'onScreen', 0);")</f>
-        <v>DJK_xcorr_branches(p, branchData, 'noise_Y6_mean', 'noise_muP25_fitNew', 'correct', 1, 'xlim', [-450 450], 'selectionName', name_rm_branch, 'onScreen', 0);</v>
+        <v>DJK_xcorr_branches(p, branchData, 'noise_Y6_mean', 'noise_muP15_fitNew', 'correct', 1, 'xlim', [-450 450], 'selectionName', name_rm_branch, 'onScreen', 0);</v>
       </c>
     </row>
   </sheetData>
